--- a/utils/cleaners/Marco_consolidacion/Dimensión 2.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R211"/>
+  <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -13501,12 +13501,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -13577,7 +13577,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -13626,27 +13626,27 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -13667,7 +13667,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -13706,37 +13706,37 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -13757,7 +13757,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -13771,17 +13771,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13811,22 +13811,22 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -13847,7 +13847,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -13861,17 +13861,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -13911,12 +13911,12 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -13937,7 +13937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -13951,12 +13951,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -14027,7 +14027,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -14041,12 +14041,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -14117,7 +14117,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -14131,22 +14131,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -14166,27 +14166,27 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -14207,11 +14207,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -14226,17 +14226,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -14256,7 +14256,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -14297,11 +14297,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -14316,17 +14316,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -14387,7 +14387,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -14477,7 +14477,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -14561,13 +14561,13 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -14596,12 +14596,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14657,41 +14657,41 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14706,7 +14706,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -14741,17 +14741,17 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -14806,17 +14806,17 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -14837,7 +14837,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -14851,12 +14851,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -14927,7 +14927,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -14981,22 +14981,22 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -15017,7 +15017,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -15107,7 +15107,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -15197,7 +15197,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -15287,7 +15287,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -15377,7 +15377,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -15531,7 +15531,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -15557,7 +15557,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -15576,12 +15576,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -15647,7 +15647,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -15737,7 +15737,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -15827,7 +15827,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -15846,17 +15846,17 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -15881,22 +15881,22 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
@@ -15917,7 +15917,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -16001,13 +16001,13 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -16056,27 +16056,27 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -16091,13 +16091,13 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -16116,12 +16116,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -16187,7 +16187,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -16206,12 +16206,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -16277,7 +16277,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -16367,7 +16367,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -16421,12 +16421,12 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -16436,7 +16436,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -16457,7 +16457,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -16511,12 +16511,12 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -16547,7 +16547,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -16606,12 +16606,12 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -16637,7 +16637,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -16691,7 +16691,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -16706,17 +16706,17 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -16727,7 +16727,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -16741,17 +16741,17 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -16801,12 +16801,12 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -16817,7 +16817,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -16866,7 +16866,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -16876,17 +16876,17 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -16907,7 +16907,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -16997,7 +16997,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -17051,22 +17051,22 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -17087,7 +17087,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -17096,22 +17096,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -17161,23 +17161,23 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -17211,7 +17211,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -17251,23 +17251,23 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -17286,7 +17286,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -17351,13 +17351,13 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -17376,12 +17376,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -17406,17 +17406,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -17426,7 +17426,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -17441,13 +17441,13 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -17466,22 +17466,22 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -17496,27 +17496,27 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -17531,13 +17531,13 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -17546,32 +17546,32 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -17586,27 +17586,27 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -17621,13 +17621,13 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -17681,22 +17681,22 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -17717,7 +17717,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -17776,17 +17776,17 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -17807,7 +17807,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -17897,7 +17897,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -18016,7 +18016,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -18041,17 +18041,17 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -18077,7 +18077,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -18167,7 +18167,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -18257,7 +18257,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -18321,7 +18321,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -18347,7 +18347,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -18401,17 +18401,17 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -18437,7 +18437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -18527,7 +18527,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -18601,12 +18601,12 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -18617,7 +18617,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -18646,12 +18646,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -18691,23 +18691,23 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -18736,12 +18736,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -18781,23 +18781,23 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -18866,28 +18866,28 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -18896,32 +18896,32 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -18971,17 +18971,17 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -19001,7 +19001,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -19036,7 +19036,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -19067,11 +19067,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -19081,22 +19081,22 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -19141,12 +19141,12 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -19157,7 +19157,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -19221,12 +19221,12 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -19247,11 +19247,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -19266,17 +19266,17 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -19296,7 +19296,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -19306,7 +19306,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -19321,12 +19321,12 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -19337,89 +19337,269 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
+        <v>250</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>251</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
         <v>252</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M211" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q211" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="R211" t="inlineStr">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
         <is>
           <t>1B</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 2.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R213"/>
+  <dimension ref="A1:R214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -8026,12 +8026,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -8087,7 +8087,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -8096,12 +8096,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -8171,13 +8171,13 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -8196,12 +8196,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -8267,7 +8267,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -8357,7 +8357,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -8441,13 +8441,13 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -8471,17 +8471,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8496,17 +8496,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -8531,13 +8531,13 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -8591,12 +8591,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -8627,7 +8627,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -8681,22 +8681,22 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -8717,7 +8717,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -8741,17 +8741,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8771,43 +8771,43 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8861,43 +8861,43 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -8906,32 +8906,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8981,13 +8981,13 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -9036,27 +9036,27 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -9077,7 +9077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -9126,27 +9126,27 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -9167,7 +9167,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9221,12 +9221,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -9257,7 +9257,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9286,12 +9286,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -9341,13 +9341,13 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -9431,13 +9431,13 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -9456,12 +9456,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -9527,7 +9527,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -9617,7 +9617,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -9701,13 +9701,13 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -9726,12 +9726,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -9771,12 +9771,12 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -9791,13 +9791,13 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -9851,12 +9851,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -9887,7 +9887,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -9901,17 +9901,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -9977,7 +9977,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -9986,12 +9986,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -10041,12 +10041,12 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -10061,13 +10061,13 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -10201,32 +10201,32 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -10236,18 +10236,18 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -10337,26 +10337,26 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -10386,12 +10386,12 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -10427,7 +10427,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -10446,17 +10446,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -10517,31 +10517,31 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -10601,13 +10601,13 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -10681,23 +10681,23 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -10721,12 +10721,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -10746,37 +10746,37 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -10787,7 +10787,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -10811,12 +10811,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -10846,17 +10846,17 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -10877,7 +10877,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -10936,17 +10936,17 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -10967,7 +10967,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -10986,17 +10986,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -11031,12 +11031,12 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -11057,7 +11057,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -11111,12 +11111,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -11147,7 +11147,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -11166,12 +11166,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -11201,22 +11201,22 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -11226,7 +11226,7 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -11237,7 +11237,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11256,22 +11256,22 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -11281,53 +11281,53 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -11376,12 +11376,12 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -11401,23 +11401,23 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -11471,12 +11471,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -11486,12 +11486,12 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -11507,7 +11507,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -11531,12 +11531,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -11571,17 +11571,17 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -11597,7 +11597,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -11611,22 +11611,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -11687,7 +11687,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -11701,17 +11701,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -11726,12 +11726,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11741,32 +11741,32 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -11777,7 +11777,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -11867,7 +11867,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -11891,12 +11891,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -11936,12 +11936,12 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -11957,7 +11957,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -11971,17 +11971,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -12047,7 +12047,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -12227,7 +12227,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -12317,7 +12317,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -12331,17 +12331,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -12361,32 +12361,32 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -12407,7 +12407,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -12436,12 +12436,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -12491,13 +12491,13 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -12571,23 +12571,23 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -12671,13 +12671,13 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -12751,23 +12751,23 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -12796,12 +12796,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -12857,7 +12857,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -12886,12 +12886,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12947,7 +12947,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -12976,12 +12976,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -13031,13 +13031,13 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -13056,22 +13056,22 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -13121,13 +13121,13 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -13156,12 +13156,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -13191,12 +13191,12 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -13211,13 +13211,13 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -13291,12 +13291,12 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -13307,7 +13307,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -13331,12 +13331,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -13361,12 +13361,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -13397,7 +13397,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -13416,17 +13416,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -13451,22 +13451,22 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -13487,7 +13487,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -13577,7 +13577,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -13591,12 +13591,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -13667,7 +13667,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -13716,27 +13716,27 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -13757,7 +13757,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -13796,37 +13796,37 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -13847,7 +13847,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -13861,17 +13861,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -13886,12 +13886,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13901,22 +13901,22 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -13937,7 +13937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -13951,17 +13951,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -14001,12 +14001,12 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -14027,7 +14027,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -14041,12 +14041,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -14117,7 +14117,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -14131,12 +14131,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -14207,7 +14207,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -14221,22 +14221,22 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -14256,27 +14256,27 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -14297,11 +14297,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -14316,17 +14316,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -14387,11 +14387,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -14406,17 +14406,17 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -14477,7 +14477,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -14567,7 +14567,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -14601,7 +14601,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14651,13 +14651,13 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -14686,12 +14686,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14747,41 +14747,41 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -14796,7 +14796,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -14831,17 +14831,17 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -14896,17 +14896,17 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -14927,7 +14927,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -14941,12 +14941,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -15017,7 +15017,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -15071,22 +15071,22 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -15107,7 +15107,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -15176,7 +15176,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -15197,7 +15197,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -15287,7 +15287,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -15377,7 +15377,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -15467,7 +15467,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -15647,7 +15647,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -15666,12 +15666,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -15737,7 +15737,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -15801,7 +15801,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -15827,7 +15827,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -15917,7 +15917,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -15936,17 +15936,17 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -15971,22 +15971,22 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -16007,7 +16007,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -16091,13 +16091,13 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -16146,27 +16146,27 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -16181,13 +16181,13 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -16206,12 +16206,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -16277,7 +16277,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -16296,12 +16296,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -16356,7 +16356,7 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -16367,7 +16367,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -16457,7 +16457,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -16511,12 +16511,12 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -16547,7 +16547,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -16601,12 +16601,12 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -16637,7 +16637,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -16696,12 +16696,12 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -16727,7 +16727,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -16781,7 +16781,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -16796,17 +16796,17 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -16817,7 +16817,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -16831,17 +16831,17 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -16866,7 +16866,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -16891,12 +16891,12 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -16907,7 +16907,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -16966,17 +16966,17 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -16997,7 +16997,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -17021,7 +17021,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -17087,7 +17087,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -17141,22 +17141,22 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -17177,7 +17177,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -17186,22 +17186,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -17211,7 +17211,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -17251,23 +17251,23 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -17286,7 +17286,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -17341,23 +17341,23 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -17441,13 +17441,13 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -17466,12 +17466,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -17496,17 +17496,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -17531,13 +17531,13 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -17556,22 +17556,22 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -17586,27 +17586,27 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -17621,13 +17621,13 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -17636,32 +17636,32 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -17676,27 +17676,27 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -17711,13 +17711,13 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -17771,22 +17771,22 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -17807,7 +17807,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -17866,17 +17866,17 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -17897,7 +17897,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -17987,7 +17987,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -18106,7 +18106,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -18131,17 +18131,17 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -18167,7 +18167,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -18226,7 +18226,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -18257,7 +18257,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -18347,7 +18347,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -18437,7 +18437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -18491,17 +18491,17 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -18527,7 +18527,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -18617,7 +18617,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -18691,12 +18691,12 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -18707,7 +18707,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -18736,12 +18736,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -18781,23 +18781,23 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -18826,12 +18826,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -18871,23 +18871,23 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -18956,28 +18956,28 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -18986,32 +18986,32 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -19026,7 +19026,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -19046,7 +19046,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -19061,17 +19061,17 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -19157,11 +19157,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -19221,12 +19221,12 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -19247,7 +19247,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -19271,12 +19271,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -19296,37 +19296,37 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -19337,7 +19337,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -19386,7 +19386,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -19411,12 +19411,12 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -19427,11 +19427,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -19446,12 +19446,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -19517,89 +19517,179 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
+        <v>251</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
         <v>252</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M213" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P213" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q213" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="R213" t="inlineStr">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
         <is>
           <t>1B</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 2.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="23">
   <si>
     <t>Código IE</t>
   </si>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:R252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -2600,7 +2600,7 @@
         <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
@@ -2609,7 +2609,7 @@
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M39" t="s">
         <v>22</v>
@@ -12768,28 +12768,28 @@
     </row>
     <row r="221" spans="1:18">
       <c r="A221">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
         <v>19</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G221" t="s">
         <v>22</v>
       </c>
       <c r="H221" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I221" t="s">
         <v>19</v>
@@ -12798,7 +12798,7 @@
         <v>19</v>
       </c>
       <c r="K221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L221" t="s">
         <v>19</v>
@@ -12807,36 +12807,36 @@
         <v>19</v>
       </c>
       <c r="N221" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O221" t="s">
         <v>19</v>
       </c>
       <c r="P221" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q221" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R221" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:18">
       <c r="A222">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
         <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D222" t="s">
         <v>19</v>
       </c>
       <c r="E222" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F222" t="s">
         <v>19</v>
@@ -12845,7 +12845,7 @@
         <v>22</v>
       </c>
       <c r="H222" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -12854,13 +12854,13 @@
         <v>19</v>
       </c>
       <c r="K222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L222" t="s">
         <v>19</v>
       </c>
       <c r="M222" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N222" t="s">
         <v>21</v>
@@ -12869,30 +12869,30 @@
         <v>19</v>
       </c>
       <c r="P222" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q222" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R222" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:18">
       <c r="A223">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
         <v>19</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D223" t="s">
         <v>19</v>
       </c>
       <c r="E223" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F223" t="s">
         <v>19</v>
@@ -12901,7 +12901,7 @@
         <v>22</v>
       </c>
       <c r="H223" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I223" t="s">
         <v>19</v>
@@ -12910,13 +12910,13 @@
         <v>19</v>
       </c>
       <c r="K223" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L223" t="s">
         <v>19</v>
       </c>
       <c r="M223" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N223" t="s">
         <v>21</v>
@@ -12931,33 +12931,33 @@
         <v>22</v>
       </c>
       <c r="R223" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:18">
       <c r="A224">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
         <v>19</v>
       </c>
       <c r="C224" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D224" t="s">
         <v>19</v>
       </c>
       <c r="E224" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F224" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G224" t="s">
         <v>22</v>
       </c>
       <c r="H224" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I224" t="s">
         <v>19</v>
@@ -12966,19 +12966,19 @@
         <v>19</v>
       </c>
       <c r="K224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M224" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N224" t="s">
         <v>21</v>
       </c>
       <c r="O224" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P224" t="s">
         <v>22</v>
@@ -12987,33 +12987,33 @@
         <v>22</v>
       </c>
       <c r="R224" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:18">
       <c r="A225">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
         <v>19</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D225" t="s">
         <v>19</v>
       </c>
       <c r="E225" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G225" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H225" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I225" t="s">
         <v>19</v>
@@ -13022,19 +13022,19 @@
         <v>19</v>
       </c>
       <c r="K225" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L225" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M225" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N225" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O225" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P225" t="s">
         <v>22</v>
@@ -13043,33 +13043,33 @@
         <v>22</v>
       </c>
       <c r="R225" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226" spans="1:18">
       <c r="A226">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
         <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E226" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F226" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G226" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H226" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I226" t="s">
         <v>19</v>
@@ -13078,19 +13078,19 @@
         <v>19</v>
       </c>
       <c r="K226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M226" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N226" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O226" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P226" t="s">
         <v>22</v>
@@ -13099,12 +13099,12 @@
         <v>22</v>
       </c>
       <c r="R226" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:18">
       <c r="A227">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>19</v>
@@ -13113,7 +13113,7 @@
         <v>18</v>
       </c>
       <c r="D227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E227" t="s">
         <v>21</v>
@@ -13122,7 +13122,7 @@
         <v>21</v>
       </c>
       <c r="G227" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H227" t="s">
         <v>18</v>
@@ -13137,16 +13137,16 @@
         <v>20</v>
       </c>
       <c r="L227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M227" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N227" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O227" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P227" t="s">
         <v>22</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="228" spans="1:18">
       <c r="A228">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
         <v>19</v>
@@ -13178,7 +13178,7 @@
         <v>21</v>
       </c>
       <c r="G228" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H228" t="s">
         <v>18</v>
@@ -13196,13 +13196,13 @@
         <v>19</v>
       </c>
       <c r="M228" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N228" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O228" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P228" t="s">
         <v>22</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="229" spans="1:18">
       <c r="A229">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
         <v>19</v>
@@ -13225,7 +13225,7 @@
         <v>18</v>
       </c>
       <c r="D229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E229" t="s">
         <v>21</v>
@@ -13249,7 +13249,7 @@
         <v>20</v>
       </c>
       <c r="L229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M229" t="s">
         <v>22</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="230" spans="1:18">
       <c r="A230">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
         <v>19</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="231" spans="1:18">
       <c r="A231">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
         <v>19</v>
@@ -13337,16 +13337,16 @@
         <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E231" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G231" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H231" t="s">
         <v>18</v>
@@ -13361,7 +13361,7 @@
         <v>20</v>
       </c>
       <c r="L231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M231" t="s">
         <v>22</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="232" spans="1:18">
       <c r="A232">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
         <v>19</v>
@@ -13396,10 +13396,10 @@
         <v>19</v>
       </c>
       <c r="E232" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F232" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G232" t="s">
         <v>19</v>
@@ -13420,10 +13420,10 @@
         <v>19</v>
       </c>
       <c r="M232" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N232" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O232" t="s">
         <v>21</v>
@@ -13440,7 +13440,7 @@
     </row>
     <row r="233" spans="1:18">
       <c r="A233">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
         <v>19</v>
@@ -13452,13 +13452,13 @@
         <v>19</v>
       </c>
       <c r="E233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F233" t="s">
         <v>21</v>
       </c>
       <c r="G233" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H233" t="s">
         <v>18</v>
@@ -13476,13 +13476,13 @@
         <v>19</v>
       </c>
       <c r="M233" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N233" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P233" t="s">
         <v>22</v>
@@ -13496,7 +13496,7 @@
     </row>
     <row r="234" spans="1:18">
       <c r="A234">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
         <v>19</v>
@@ -13514,7 +13514,7 @@
         <v>21</v>
       </c>
       <c r="G234" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H234" t="s">
         <v>18</v>
@@ -13535,10 +13535,10 @@
         <v>22</v>
       </c>
       <c r="N234" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O234" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P234" t="s">
         <v>22</v>
@@ -13552,7 +13552,7 @@
     </row>
     <row r="235" spans="1:18">
       <c r="A235">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
         <v>19</v>
@@ -13567,7 +13567,7 @@
         <v>19</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G235" t="s">
         <v>19</v>
@@ -13594,7 +13594,7 @@
         <v>19</v>
       </c>
       <c r="O235" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P235" t="s">
         <v>22</v>
@@ -13608,7 +13608,7 @@
     </row>
     <row r="236" spans="1:18">
       <c r="A236">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
         <v>19</v>
@@ -13623,7 +13623,7 @@
         <v>19</v>
       </c>
       <c r="F236" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G236" t="s">
         <v>19</v>
@@ -13641,13 +13641,13 @@
         <v>20</v>
       </c>
       <c r="L236" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M236" t="s">
         <v>22</v>
       </c>
       <c r="N236" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O236" t="s">
         <v>19</v>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="237" spans="1:18">
       <c r="A237">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
         <v>19</v>
@@ -13679,7 +13679,7 @@
         <v>19</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G237" t="s">
         <v>19</v>
@@ -13697,13 +13697,13 @@
         <v>20</v>
       </c>
       <c r="L237" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M237" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N237" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O237" t="s">
         <v>19</v>
@@ -13720,7 +13720,7 @@
     </row>
     <row r="238" spans="1:18">
       <c r="A238">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
         <v>19</v>
@@ -13738,7 +13738,7 @@
         <v>19</v>
       </c>
       <c r="G238" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H238" t="s">
         <v>18</v>
@@ -13776,7 +13776,7 @@
     </row>
     <row r="239" spans="1:18">
       <c r="A239">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
         <v>19</v>
@@ -13794,7 +13794,7 @@
         <v>19</v>
       </c>
       <c r="G239" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H239" t="s">
         <v>18</v>
@@ -13821,10 +13821,10 @@
         <v>19</v>
       </c>
       <c r="P239" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q239" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R239" t="s">
         <v>18</v>
@@ -13832,13 +13832,13 @@
     </row>
     <row r="240" spans="1:18">
       <c r="A240">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
         <v>19</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D240" t="s">
         <v>19</v>
@@ -13850,10 +13850,10 @@
         <v>19</v>
       </c>
       <c r="G240" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H240" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I240" t="s">
         <v>19</v>
@@ -13862,7 +13862,7 @@
         <v>19</v>
       </c>
       <c r="K240" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L240" t="s">
         <v>19</v>
@@ -13877,18 +13877,18 @@
         <v>19</v>
       </c>
       <c r="P240" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q240" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R240" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:18">
       <c r="A241">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
         <v>19</v>
@@ -13906,10 +13906,10 @@
         <v>19</v>
       </c>
       <c r="G241" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H241" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I241" t="s">
         <v>19</v>
@@ -13918,7 +13918,7 @@
         <v>19</v>
       </c>
       <c r="K241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L241" t="s">
         <v>19</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="242" spans="1:18">
       <c r="A242">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
         <v>19</v>
@@ -13974,7 +13974,7 @@
         <v>19</v>
       </c>
       <c r="K242" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L242" t="s">
         <v>19</v>
@@ -13989,18 +13989,18 @@
         <v>19</v>
       </c>
       <c r="P242" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q242" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R242" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:18">
       <c r="A243">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
         <v>19</v>
@@ -14009,19 +14009,19 @@
         <v>20</v>
       </c>
       <c r="D243" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E243" t="s">
         <v>19</v>
       </c>
       <c r="F243" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G243" t="s">
         <v>19</v>
       </c>
       <c r="H243" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I243" t="s">
         <v>19</v>
@@ -14042,42 +14042,42 @@
         <v>19</v>
       </c>
       <c r="O243" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P243" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q243" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R243" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:18">
       <c r="A244">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
         <v>19</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D244" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E244" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F244" t="s">
         <v>21</v>
       </c>
       <c r="G244" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H244" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I244" t="s">
         <v>19</v>
@@ -14086,16 +14086,16 @@
         <v>19</v>
       </c>
       <c r="K244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L244" t="s">
         <v>19</v>
       </c>
       <c r="M244" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N244" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O244" t="s">
         <v>21</v>
@@ -14107,12 +14107,12 @@
         <v>22</v>
       </c>
       <c r="R244" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:18">
       <c r="A245">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
         <v>19</v>
@@ -14127,7 +14127,7 @@
         <v>21</v>
       </c>
       <c r="F245" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G245" t="s">
         <v>22</v>
@@ -14148,13 +14148,13 @@
         <v>19</v>
       </c>
       <c r="M245" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N245" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O245" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P245" t="s">
         <v>22</v>
@@ -14168,22 +14168,22 @@
     </row>
     <row r="246" spans="1:18">
       <c r="A246">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C246" t="s">
         <v>18</v>
       </c>
       <c r="D246" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E246" t="s">
         <v>21</v>
       </c>
       <c r="F246" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G246" t="s">
         <v>22</v>
@@ -14204,7 +14204,7 @@
         <v>19</v>
       </c>
       <c r="M246" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N246" t="s">
         <v>19</v>
@@ -14224,10 +14224,10 @@
     </row>
     <row r="247" spans="1:18">
       <c r="A247">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C247" t="s">
         <v>18</v>
@@ -14236,7 +14236,7 @@
         <v>20</v>
       </c>
       <c r="E247" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F247" t="s">
         <v>21</v>
@@ -14248,31 +14248,31 @@
         <v>18</v>
       </c>
       <c r="I247" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J247" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K247" t="s">
         <v>20</v>
       </c>
       <c r="L247" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M247" t="s">
         <v>22</v>
       </c>
       <c r="N247" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O247" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P247" t="s">
         <v>22</v>
       </c>
       <c r="Q247" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R247" t="s">
         <v>18</v>
@@ -14280,7 +14280,7 @@
     </row>
     <row r="248" spans="1:18">
       <c r="A248">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
         <v>19</v>
@@ -14289,46 +14289,46 @@
         <v>18</v>
       </c>
       <c r="D248" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E248" t="s">
         <v>19</v>
       </c>
       <c r="F248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G248" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H248" t="s">
         <v>18</v>
       </c>
       <c r="I248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J248" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K248" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L248" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M248" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P248" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q248" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R248" t="s">
         <v>18</v>
@@ -14336,7 +14336,7 @@
     </row>
     <row r="249" spans="1:18">
       <c r="A249">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" t="s">
         <v>19</v>
@@ -14354,7 +14354,7 @@
         <v>19</v>
       </c>
       <c r="G249" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H249" t="s">
         <v>18</v>
@@ -14366,13 +14366,13 @@
         <v>19</v>
       </c>
       <c r="K249" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L249" t="s">
         <v>19</v>
       </c>
       <c r="M249" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N249" t="s">
         <v>19</v>
@@ -14381,10 +14381,10 @@
         <v>19</v>
       </c>
       <c r="P249" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q249" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R249" t="s">
         <v>18</v>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="250" spans="1:18">
       <c r="A250">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C250" t="s">
         <v>18</v>
@@ -14404,10 +14404,10 @@
         <v>19</v>
       </c>
       <c r="E250" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F250" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G250" t="s">
         <v>22</v>
@@ -14448,57 +14448,113 @@
     </row>
     <row r="251" spans="1:18">
       <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>18</v>
+      </c>
+      <c r="C251" t="s">
+        <v>18</v>
+      </c>
+      <c r="D251" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" t="s">
+        <v>21</v>
+      </c>
+      <c r="F251" t="s">
+        <v>21</v>
+      </c>
+      <c r="G251" t="s">
+        <v>22</v>
+      </c>
+      <c r="H251" t="s">
+        <v>18</v>
+      </c>
+      <c r="I251" t="s">
+        <v>19</v>
+      </c>
+      <c r="J251" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" t="s">
+        <v>20</v>
+      </c>
+      <c r="L251" t="s">
+        <v>19</v>
+      </c>
+      <c r="M251" t="s">
+        <v>22</v>
+      </c>
+      <c r="N251" t="s">
+        <v>19</v>
+      </c>
+      <c r="O251" t="s">
+        <v>19</v>
+      </c>
+      <c r="P251" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>22</v>
+      </c>
+      <c r="R251" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18">
+      <c r="A252">
         <v>252</v>
       </c>
-      <c r="B251" t="s">
-        <v>19</v>
-      </c>
-      <c r="C251" t="s">
-        <v>18</v>
-      </c>
-      <c r="D251" t="s">
-        <v>19</v>
-      </c>
-      <c r="E251" t="s">
-        <v>19</v>
-      </c>
-      <c r="F251" t="s">
-        <v>19</v>
-      </c>
-      <c r="G251" t="s">
-        <v>22</v>
-      </c>
-      <c r="H251" t="s">
-        <v>18</v>
-      </c>
-      <c r="I251" t="s">
-        <v>19</v>
-      </c>
-      <c r="J251" t="s">
-        <v>19</v>
-      </c>
-      <c r="K251" t="s">
-        <v>20</v>
-      </c>
-      <c r="L251" t="s">
-        <v>19</v>
-      </c>
-      <c r="M251" t="s">
-        <v>22</v>
-      </c>
-      <c r="N251" t="s">
-        <v>19</v>
-      </c>
-      <c r="O251" t="s">
-        <v>19</v>
-      </c>
-      <c r="P251" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q251" t="s">
-        <v>22</v>
-      </c>
-      <c r="R251" t="s">
+      <c r="B252" t="s">
+        <v>19</v>
+      </c>
+      <c r="C252" t="s">
+        <v>18</v>
+      </c>
+      <c r="D252" t="s">
+        <v>19</v>
+      </c>
+      <c r="E252" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252" t="s">
+        <v>19</v>
+      </c>
+      <c r="G252" t="s">
+        <v>22</v>
+      </c>
+      <c r="H252" t="s">
+        <v>18</v>
+      </c>
+      <c r="I252" t="s">
+        <v>19</v>
+      </c>
+      <c r="J252" t="s">
+        <v>19</v>
+      </c>
+      <c r="K252" t="s">
+        <v>20</v>
+      </c>
+      <c r="L252" t="s">
+        <v>19</v>
+      </c>
+      <c r="M252" t="s">
+        <v>22</v>
+      </c>
+      <c r="N252" t="s">
+        <v>19</v>
+      </c>
+      <c r="O252" t="s">
+        <v>19</v>
+      </c>
+      <c r="P252" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>22</v>
+      </c>
+      <c r="R252" t="s">
         <v>18</v>
       </c>
     </row>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 2.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="23">
   <si>
     <t>Código IE</t>
   </si>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R252"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2311,7 +2311,7 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
         <v>22</v>
@@ -2326,25 +2326,25 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s">
         <v>19</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R34" t="s">
         <v>18</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="175" spans="1:18">
       <c r="A175">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>19</v>
@@ -10204,7 +10204,7 @@
         <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F175" t="s">
         <v>21</v>
@@ -10231,7 +10231,7 @@
         <v>22</v>
       </c>
       <c r="N175" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O175" t="s">
         <v>21</v>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="176" spans="1:18">
       <c r="A176">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>19</v>
@@ -10257,10 +10257,10 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F176" t="s">
         <v>21</v>
@@ -10281,7 +10281,7 @@
         <v>20</v>
       </c>
       <c r="L176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M176" t="s">
         <v>22</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="177" spans="1:18">
       <c r="A177">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>19</v>
@@ -10313,7 +10313,7 @@
         <v>18</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E177" t="s">
         <v>21</v>
@@ -10334,19 +10334,19 @@
         <v>19</v>
       </c>
       <c r="K177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N177" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O177" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P177" t="s">
         <v>22</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="178" spans="1:18">
       <c r="A178">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>19</v>
@@ -10369,7 +10369,7 @@
         <v>18</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E178" t="s">
         <v>21</v>
@@ -10384,31 +10384,31 @@
         <v>18</v>
       </c>
       <c r="I178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J178" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M178" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P178" t="s">
         <v>22</v>
       </c>
       <c r="Q178" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R178" t="s">
         <v>18</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="179" spans="1:18">
       <c r="A179">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>19</v>
@@ -10425,13 +10425,13 @@
         <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G179" t="s">
         <v>22</v>
@@ -10440,31 +10440,31 @@
         <v>18</v>
       </c>
       <c r="I179" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K179" t="s">
         <v>20</v>
       </c>
       <c r="L179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M179" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N179" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O179" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P179" t="s">
         <v>22</v>
       </c>
       <c r="Q179" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R179" t="s">
         <v>18</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="180" spans="1:18">
       <c r="A180">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>19</v>
@@ -10481,13 +10481,13 @@
         <v>18</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G180" t="s">
         <v>22</v>
@@ -10511,10 +10511,10 @@
         <v>19</v>
       </c>
       <c r="N180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P180" t="s">
         <v>22</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="181" spans="1:18">
       <c r="A181">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>19</v>
@@ -10537,10 +10537,10 @@
         <v>18</v>
       </c>
       <c r="D181" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F181" t="s">
         <v>21</v>
@@ -10564,7 +10564,7 @@
         <v>19</v>
       </c>
       <c r="M181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N181" t="s">
         <v>21</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="182" spans="1:18">
       <c r="A182">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>19</v>
@@ -10593,10 +10593,10 @@
         <v>18</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E182" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -10608,7 +10608,7 @@
         <v>18</v>
       </c>
       <c r="I182" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J182" t="s">
         <v>19</v>
@@ -10617,7 +10617,7 @@
         <v>20</v>
       </c>
       <c r="L182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M182" t="s">
         <v>22</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="183" spans="1:18">
       <c r="A183">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>19</v>
@@ -10649,40 +10649,40 @@
         <v>18</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H183" t="s">
         <v>18</v>
       </c>
       <c r="I183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J183" t="s">
         <v>19</v>
       </c>
       <c r="K183" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L183" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M183" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P183" t="s">
         <v>22</v>
@@ -10696,10 +10696,10 @@
     </row>
     <row r="184" spans="1:18">
       <c r="A184">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C184" t="s">
         <v>18</v>
@@ -10708,13 +10708,13 @@
         <v>19</v>
       </c>
       <c r="E184" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H184" t="s">
         <v>18</v>
@@ -10726,7 +10726,7 @@
         <v>19</v>
       </c>
       <c r="K184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L184" t="s">
         <v>19</v>
@@ -10752,10 +10752,10 @@
     </row>
     <row r="185" spans="1:18">
       <c r="A185">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C185" t="s">
         <v>18</v>
@@ -10764,13 +10764,13 @@
         <v>19</v>
       </c>
       <c r="E185" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G185" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H185" t="s">
         <v>18</v>
@@ -10782,7 +10782,7 @@
         <v>19</v>
       </c>
       <c r="K185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L185" t="s">
         <v>19</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>19</v>
@@ -10826,7 +10826,7 @@
         <v>19</v>
       </c>
       <c r="G186" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H186" t="s">
         <v>18</v>
@@ -10864,13 +10864,13 @@
     </row>
     <row r="187" spans="1:18">
       <c r="A187">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>19</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D187" t="s">
         <v>19</v>
@@ -10885,7 +10885,7 @@
         <v>22</v>
       </c>
       <c r="H187" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I187" t="s">
         <v>19</v>
@@ -10915,12 +10915,12 @@
         <v>22</v>
       </c>
       <c r="R187" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:18">
       <c r="A188">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>19</v>
@@ -10938,10 +10938,10 @@
         <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H188" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I188" t="s">
         <v>19</v>
@@ -10976,28 +10976,28 @@
     </row>
     <row r="189" spans="1:18">
       <c r="A189">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E189" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I189" t="s">
         <v>19</v>
@@ -11006,7 +11006,7 @@
         <v>19</v>
       </c>
       <c r="K189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L189" t="s">
         <v>19</v>
@@ -11027,15 +11027,15 @@
         <v>22</v>
       </c>
       <c r="R189" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:18">
       <c r="A190">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C190" t="s">
         <v>18</v>
@@ -11068,13 +11068,13 @@
         <v>19</v>
       </c>
       <c r="M190" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N190" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O190" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P190" t="s">
         <v>22</v>
@@ -11088,7 +11088,7 @@
     </row>
     <row r="191" spans="1:18">
       <c r="A191">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>19</v>
@@ -11097,16 +11097,16 @@
         <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E191" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
       </c>
       <c r="G191" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H191" t="s">
         <v>18</v>
@@ -11121,7 +11121,7 @@
         <v>20</v>
       </c>
       <c r="L191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M191" t="s">
         <v>22</v>
@@ -11144,13 +11144,13 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>19</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D192" t="s">
         <v>19</v>
@@ -11159,13 +11159,13 @@
         <v>19</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G192" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H192" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I192" t="s">
         <v>19</v>
@@ -11177,16 +11177,16 @@
         <v>20</v>
       </c>
       <c r="L192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M192" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N192" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O192" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P192" t="s">
         <v>22</v>
@@ -11195,12 +11195,12 @@
         <v>22</v>
       </c>
       <c r="R192" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:18">
       <c r="A193">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>19</v>
@@ -11215,13 +11215,13 @@
         <v>19</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G193" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H193" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I193" t="s">
         <v>19</v>
@@ -11236,13 +11236,13 @@
         <v>19</v>
       </c>
       <c r="M193" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N193" t="s">
         <v>19</v>
       </c>
       <c r="O193" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P193" t="s">
         <v>22</v>
@@ -11256,19 +11256,19 @@
     </row>
     <row r="194" spans="1:18">
       <c r="A194">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>19</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
         <v>19</v>
       </c>
       <c r="E194" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -11277,19 +11277,19 @@
         <v>19</v>
       </c>
       <c r="H194" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I194" t="s">
         <v>19</v>
       </c>
       <c r="J194" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K194" t="s">
         <v>20</v>
       </c>
       <c r="L194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M194" t="s">
         <v>22</v>
@@ -11304,15 +11304,15 @@
         <v>22</v>
       </c>
       <c r="Q194" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R194" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:18">
       <c r="A195">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>19</v>
@@ -11324,13 +11324,13 @@
         <v>19</v>
       </c>
       <c r="E195" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
       </c>
       <c r="G195" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H195" t="s">
         <v>18</v>
@@ -11339,13 +11339,13 @@
         <v>19</v>
       </c>
       <c r="J195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M195" t="s">
         <v>22</v>
@@ -11354,13 +11354,13 @@
         <v>19</v>
       </c>
       <c r="O195" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P195" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q195" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R195" t="s">
         <v>18</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>19</v>
@@ -11398,22 +11398,22 @@
         <v>19</v>
       </c>
       <c r="K196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M196" t="s">
         <v>22</v>
       </c>
       <c r="N196" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O196" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P196" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q196" t="s">
         <v>22</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="197" spans="1:18">
       <c r="A197">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>19</v>
@@ -11436,7 +11436,7 @@
         <v>19</v>
       </c>
       <c r="E197" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -11457,16 +11457,16 @@
         <v>20</v>
       </c>
       <c r="L197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M197" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N197" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O197" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P197" t="s">
         <v>22</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="198" spans="1:18">
       <c r="A198">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>19</v>
@@ -11516,13 +11516,13 @@
         <v>19</v>
       </c>
       <c r="M198" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N198" t="s">
         <v>19</v>
       </c>
       <c r="O198" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P198" t="s">
         <v>22</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="199" spans="1:18">
       <c r="A199">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>19</v>
@@ -11572,7 +11572,7 @@
         <v>19</v>
       </c>
       <c r="M199" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N199" t="s">
         <v>19</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="200" spans="1:18">
       <c r="A200">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>19</v>
@@ -11628,7 +11628,7 @@
         <v>19</v>
       </c>
       <c r="M200" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N200" t="s">
         <v>19</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="201" spans="1:18">
       <c r="A201">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>19</v>
@@ -11660,7 +11660,7 @@
         <v>19</v>
       </c>
       <c r="E201" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F201" t="s">
         <v>21</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="202" spans="1:18">
       <c r="A202">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>19</v>
@@ -11760,7 +11760,7 @@
     </row>
     <row r="203" spans="1:18">
       <c r="A203">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>19</v>
@@ -11772,7 +11772,7 @@
         <v>19</v>
       </c>
       <c r="E203" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F203" t="s">
         <v>21</v>
@@ -11799,7 +11799,7 @@
         <v>22</v>
       </c>
       <c r="N203" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O203" t="s">
         <v>21</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="204" spans="1:18">
       <c r="A204">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>19</v>
@@ -11828,10 +11828,10 @@
         <v>19</v>
       </c>
       <c r="E204" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G204" t="s">
         <v>22</v>
@@ -11855,7 +11855,7 @@
         <v>22</v>
       </c>
       <c r="N204" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O204" t="s">
         <v>21</v>
@@ -11872,7 +11872,7 @@
     </row>
     <row r="205" spans="1:18">
       <c r="A205">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>19</v>
@@ -11884,13 +11884,13 @@
         <v>19</v>
       </c>
       <c r="E205" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F205" t="s">
         <v>19</v>
       </c>
       <c r="G205" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H205" t="s">
         <v>18</v>
@@ -11911,7 +11911,7 @@
         <v>22</v>
       </c>
       <c r="N205" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O205" t="s">
         <v>21</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="206" spans="1:18">
       <c r="A206">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>19</v>
@@ -11952,7 +11952,7 @@
         <v>18</v>
       </c>
       <c r="I206" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J206" t="s">
         <v>19</v>
@@ -11961,7 +11961,7 @@
         <v>20</v>
       </c>
       <c r="L206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M206" t="s">
         <v>22</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="207" spans="1:18">
       <c r="A207">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>19</v>
@@ -11993,16 +11993,16 @@
         <v>18</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E207" t="s">
         <v>21</v>
       </c>
       <c r="F207" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G207" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H207" t="s">
         <v>18</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="208" spans="1:18">
       <c r="A208">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>19</v>
@@ -12049,10 +12049,10 @@
         <v>18</v>
       </c>
       <c r="D208" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E208" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F208" t="s">
         <v>21</v>
@@ -12064,7 +12064,7 @@
         <v>18</v>
       </c>
       <c r="I208" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J208" t="s">
         <v>19</v>
@@ -12073,16 +12073,16 @@
         <v>20</v>
       </c>
       <c r="L208" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M208" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N208" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O208" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P208" t="s">
         <v>22</v>
@@ -12096,13 +12096,13 @@
     </row>
     <row r="209" spans="1:18">
       <c r="A209">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>19</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D209" t="s">
         <v>19</v>
@@ -12111,13 +12111,13 @@
         <v>19</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G209" t="s">
         <v>22</v>
       </c>
       <c r="H209" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I209" t="s">
         <v>19</v>
@@ -12126,7 +12126,7 @@
         <v>19</v>
       </c>
       <c r="K209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L209" t="s">
         <v>19</v>
@@ -12147,24 +12147,24 @@
         <v>22</v>
       </c>
       <c r="R209" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:18">
       <c r="A210">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>19</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D210" t="s">
         <v>19</v>
       </c>
       <c r="E210" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F210" t="s">
         <v>19</v>
@@ -12173,7 +12173,7 @@
         <v>22</v>
       </c>
       <c r="H210" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I210" t="s">
         <v>19</v>
@@ -12182,19 +12182,19 @@
         <v>19</v>
       </c>
       <c r="K210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M210" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N210" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O210" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P210" t="s">
         <v>22</v>
@@ -12203,12 +12203,12 @@
         <v>22</v>
       </c>
       <c r="R210" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:18">
       <c r="A211">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>19</v>
@@ -12220,10 +12220,10 @@
         <v>19</v>
       </c>
       <c r="E211" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G211" t="s">
         <v>22</v>
@@ -12235,7 +12235,7 @@
         <v>19</v>
       </c>
       <c r="J211" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K211" t="s">
         <v>20</v>
@@ -12256,7 +12256,7 @@
         <v>22</v>
       </c>
       <c r="Q211" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R211" t="s">
         <v>18</v>
@@ -12264,7 +12264,7 @@
     </row>
     <row r="212" spans="1:18">
       <c r="A212">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>19</v>
@@ -12276,10 +12276,10 @@
         <v>19</v>
       </c>
       <c r="E212" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G212" t="s">
         <v>22</v>
@@ -12291,13 +12291,13 @@
         <v>19</v>
       </c>
       <c r="J212" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K212" t="s">
         <v>20</v>
       </c>
       <c r="L212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M212" t="s">
         <v>22</v>
@@ -12312,7 +12312,7 @@
         <v>22</v>
       </c>
       <c r="Q212" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R212" t="s">
         <v>18</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="213" spans="1:18">
       <c r="A213">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>19</v>
@@ -12353,7 +12353,7 @@
         <v>20</v>
       </c>
       <c r="L213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M213" t="s">
         <v>22</v>
@@ -12376,7 +12376,7 @@
     </row>
     <row r="214" spans="1:18">
       <c r="A214">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>19</v>
@@ -12391,7 +12391,7 @@
         <v>21</v>
       </c>
       <c r="F214" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G214" t="s">
         <v>22</v>
@@ -12409,16 +12409,16 @@
         <v>20</v>
       </c>
       <c r="L214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M214" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N214" t="s">
         <v>21</v>
       </c>
       <c r="O214" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P214" t="s">
         <v>22</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="215" spans="1:18">
       <c r="A215">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>19</v>
@@ -12447,7 +12447,7 @@
         <v>21</v>
       </c>
       <c r="F215" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G215" t="s">
         <v>22</v>
@@ -12465,16 +12465,16 @@
         <v>20</v>
       </c>
       <c r="L215" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M215" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N215" t="s">
         <v>21</v>
       </c>
       <c r="O215" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P215" t="s">
         <v>22</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="216" spans="1:18">
       <c r="A216">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>19</v>
@@ -12500,7 +12500,7 @@
         <v>19</v>
       </c>
       <c r="E216" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F216" t="s">
         <v>19</v>
@@ -12524,10 +12524,10 @@
         <v>20</v>
       </c>
       <c r="M216" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N216" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O216" t="s">
         <v>21</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="217" spans="1:18">
       <c r="A217">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>19</v>
@@ -12559,7 +12559,7 @@
         <v>19</v>
       </c>
       <c r="F217" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G217" t="s">
         <v>22</v>
@@ -12577,7 +12577,7 @@
         <v>20</v>
       </c>
       <c r="L217" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M217" t="s">
         <v>19</v>
@@ -12586,13 +12586,13 @@
         <v>19</v>
       </c>
       <c r="O217" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P217" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q217" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R217" t="s">
         <v>18</v>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="218" spans="1:18">
       <c r="A218">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>19</v>
@@ -12609,13 +12609,13 @@
         <v>18</v>
       </c>
       <c r="D218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E218" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F218" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G218" t="s">
         <v>22</v>
@@ -12630,7 +12630,7 @@
         <v>19</v>
       </c>
       <c r="K218" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L218" t="s">
         <v>19</v>
@@ -12645,10 +12645,10 @@
         <v>19</v>
       </c>
       <c r="P218" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q218" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R218" t="s">
         <v>18</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="219" spans="1:18">
       <c r="A219">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>19</v>
@@ -12665,7 +12665,7 @@
         <v>18</v>
       </c>
       <c r="D219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E219" t="s">
         <v>21</v>
@@ -12686,19 +12686,19 @@
         <v>19</v>
       </c>
       <c r="K219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L219" t="s">
         <v>19</v>
       </c>
       <c r="M219" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N219" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O219" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P219" t="s">
         <v>22</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="220" spans="1:18">
       <c r="A220">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>19</v>
@@ -12721,13 +12721,13 @@
         <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E220" t="s">
         <v>21</v>
       </c>
       <c r="F220" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G220" t="s">
         <v>22</v>
@@ -12745,7 +12745,7 @@
         <v>20</v>
       </c>
       <c r="L220" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M220" t="s">
         <v>22</v>
@@ -12768,7 +12768,7 @@
     </row>
     <row r="221" spans="1:18">
       <c r="A221">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>19</v>
@@ -12801,16 +12801,16 @@
         <v>20</v>
       </c>
       <c r="L221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M221" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P221" t="s">
         <v>22</v>
@@ -12824,28 +12824,28 @@
     </row>
     <row r="222" spans="1:18">
       <c r="A222">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D222" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E222" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F222" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G222" t="s">
         <v>22</v>
       </c>
       <c r="H222" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -12854,7 +12854,7 @@
         <v>19</v>
       </c>
       <c r="K222" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L222" t="s">
         <v>19</v>
@@ -12863,36 +12863,36 @@
         <v>19</v>
       </c>
       <c r="N222" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O222" t="s">
         <v>19</v>
       </c>
       <c r="P222" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q222" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R222" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:18">
       <c r="A223">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>19</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D223" t="s">
         <v>19</v>
       </c>
       <c r="E223" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F223" t="s">
         <v>19</v>
@@ -12901,7 +12901,7 @@
         <v>22</v>
       </c>
       <c r="H223" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I223" t="s">
         <v>19</v>
@@ -12910,13 +12910,13 @@
         <v>19</v>
       </c>
       <c r="K223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L223" t="s">
         <v>19</v>
       </c>
       <c r="M223" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N223" t="s">
         <v>21</v>
@@ -12925,30 +12925,30 @@
         <v>19</v>
       </c>
       <c r="P223" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q223" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R223" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:18">
       <c r="A224">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>19</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D224" t="s">
         <v>19</v>
       </c>
       <c r="E224" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F224" t="s">
         <v>19</v>
@@ -12957,7 +12957,7 @@
         <v>22</v>
       </c>
       <c r="H224" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I224" t="s">
         <v>19</v>
@@ -12966,13 +12966,13 @@
         <v>19</v>
       </c>
       <c r="K224" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L224" t="s">
         <v>19</v>
       </c>
       <c r="M224" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N224" t="s">
         <v>21</v>
@@ -12987,33 +12987,33 @@
         <v>22</v>
       </c>
       <c r="R224" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:18">
       <c r="A225">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>19</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D225" t="s">
         <v>19</v>
       </c>
       <c r="E225" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G225" t="s">
         <v>22</v>
       </c>
       <c r="H225" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I225" t="s">
         <v>19</v>
@@ -13022,19 +13022,19 @@
         <v>19</v>
       </c>
       <c r="K225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M225" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N225" t="s">
         <v>21</v>
       </c>
       <c r="O225" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P225" t="s">
         <v>22</v>
@@ -13043,33 +13043,33 @@
         <v>22</v>
       </c>
       <c r="R225" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:18">
       <c r="A226">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D226" t="s">
         <v>19</v>
       </c>
       <c r="E226" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F226" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G226" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H226" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I226" t="s">
         <v>19</v>
@@ -13078,19 +13078,19 @@
         <v>19</v>
       </c>
       <c r="K226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M226" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N226" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O226" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P226" t="s">
         <v>22</v>
@@ -13099,33 +13099,33 @@
         <v>22</v>
       </c>
       <c r="R226" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:18">
       <c r="A227">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>19</v>
       </c>
       <c r="C227" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E227" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F227" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G227" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H227" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I227" t="s">
         <v>19</v>
@@ -13134,19 +13134,19 @@
         <v>19</v>
       </c>
       <c r="K227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M227" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N227" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O227" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P227" t="s">
         <v>22</v>
@@ -13155,12 +13155,12 @@
         <v>22</v>
       </c>
       <c r="R227" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:18">
       <c r="A228">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>19</v>
@@ -13169,7 +13169,7 @@
         <v>18</v>
       </c>
       <c r="D228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E228" t="s">
         <v>21</v>
@@ -13178,7 +13178,7 @@
         <v>21</v>
       </c>
       <c r="G228" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H228" t="s">
         <v>18</v>
@@ -13193,16 +13193,16 @@
         <v>20</v>
       </c>
       <c r="L228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M228" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N228" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O228" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P228" t="s">
         <v>22</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="229" spans="1:18">
       <c r="A229">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>19</v>
@@ -13234,7 +13234,7 @@
         <v>21</v>
       </c>
       <c r="G229" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H229" t="s">
         <v>18</v>
@@ -13252,13 +13252,13 @@
         <v>19</v>
       </c>
       <c r="M229" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N229" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O229" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P229" t="s">
         <v>22</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="230" spans="1:18">
       <c r="A230">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>19</v>
@@ -13281,7 +13281,7 @@
         <v>18</v>
       </c>
       <c r="D230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E230" t="s">
         <v>21</v>
@@ -13305,7 +13305,7 @@
         <v>20</v>
       </c>
       <c r="L230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M230" t="s">
         <v>22</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="231" spans="1:18">
       <c r="A231">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>19</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="232" spans="1:18">
       <c r="A232">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>19</v>
@@ -13393,16 +13393,16 @@
         <v>18</v>
       </c>
       <c r="D232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E232" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F232" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G232" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H232" t="s">
         <v>18</v>
@@ -13417,7 +13417,7 @@
         <v>20</v>
       </c>
       <c r="L232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M232" t="s">
         <v>22</v>
@@ -13440,7 +13440,7 @@
     </row>
     <row r="233" spans="1:18">
       <c r="A233">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>19</v>
@@ -13452,10 +13452,10 @@
         <v>19</v>
       </c>
       <c r="E233" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F233" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G233" t="s">
         <v>19</v>
@@ -13476,10 +13476,10 @@
         <v>19</v>
       </c>
       <c r="M233" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O233" t="s">
         <v>21</v>
@@ -13496,7 +13496,7 @@
     </row>
     <row r="234" spans="1:18">
       <c r="A234">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>19</v>
@@ -13508,13 +13508,13 @@
         <v>19</v>
       </c>
       <c r="E234" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F234" t="s">
         <v>21</v>
       </c>
       <c r="G234" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H234" t="s">
         <v>18</v>
@@ -13532,13 +13532,13 @@
         <v>19</v>
       </c>
       <c r="M234" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N234" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O234" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P234" t="s">
         <v>22</v>
@@ -13552,7 +13552,7 @@
     </row>
     <row r="235" spans="1:18">
       <c r="A235">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>19</v>
@@ -13570,7 +13570,7 @@
         <v>21</v>
       </c>
       <c r="G235" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H235" t="s">
         <v>18</v>
@@ -13591,10 +13591,10 @@
         <v>22</v>
       </c>
       <c r="N235" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O235" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P235" t="s">
         <v>22</v>
@@ -13608,7 +13608,7 @@
     </row>
     <row r="236" spans="1:18">
       <c r="A236">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>19</v>
@@ -13623,7 +13623,7 @@
         <v>19</v>
       </c>
       <c r="F236" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G236" t="s">
         <v>19</v>
@@ -13650,7 +13650,7 @@
         <v>19</v>
       </c>
       <c r="O236" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P236" t="s">
         <v>22</v>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="237" spans="1:18">
       <c r="A237">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>19</v>
@@ -13679,7 +13679,7 @@
         <v>19</v>
       </c>
       <c r="F237" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G237" t="s">
         <v>19</v>
@@ -13697,13 +13697,13 @@
         <v>20</v>
       </c>
       <c r="L237" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M237" t="s">
         <v>22</v>
       </c>
       <c r="N237" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O237" t="s">
         <v>19</v>
@@ -13720,7 +13720,7 @@
     </row>
     <row r="238" spans="1:18">
       <c r="A238">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>19</v>
@@ -13735,7 +13735,7 @@
         <v>19</v>
       </c>
       <c r="F238" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G238" t="s">
         <v>19</v>
@@ -13753,13 +13753,13 @@
         <v>20</v>
       </c>
       <c r="L238" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M238" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N238" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O238" t="s">
         <v>19</v>
@@ -13776,7 +13776,7 @@
     </row>
     <row r="239" spans="1:18">
       <c r="A239">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>19</v>
@@ -13794,7 +13794,7 @@
         <v>19</v>
       </c>
       <c r="G239" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H239" t="s">
         <v>18</v>
@@ -13832,7 +13832,7 @@
     </row>
     <row r="240" spans="1:18">
       <c r="A240">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>19</v>
@@ -13850,7 +13850,7 @@
         <v>19</v>
       </c>
       <c r="G240" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H240" t="s">
         <v>18</v>
@@ -13877,10 +13877,10 @@
         <v>19</v>
       </c>
       <c r="P240" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q240" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R240" t="s">
         <v>18</v>
@@ -13888,13 +13888,13 @@
     </row>
     <row r="241" spans="1:18">
       <c r="A241">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>19</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D241" t="s">
         <v>19</v>
@@ -13906,10 +13906,10 @@
         <v>19</v>
       </c>
       <c r="G241" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H241" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I241" t="s">
         <v>19</v>
@@ -13918,7 +13918,7 @@
         <v>19</v>
       </c>
       <c r="K241" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L241" t="s">
         <v>19</v>
@@ -13933,18 +13933,18 @@
         <v>19</v>
       </c>
       <c r="P241" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q241" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R241" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" spans="1:18">
       <c r="A242">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>19</v>
@@ -13962,10 +13962,10 @@
         <v>19</v>
       </c>
       <c r="G242" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H242" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I242" t="s">
         <v>19</v>
@@ -13974,7 +13974,7 @@
         <v>19</v>
       </c>
       <c r="K242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L242" t="s">
         <v>19</v>
@@ -14000,7 +14000,7 @@
     </row>
     <row r="243" spans="1:18">
       <c r="A243">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>19</v>
@@ -14030,7 +14030,7 @@
         <v>19</v>
       </c>
       <c r="K243" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L243" t="s">
         <v>19</v>
@@ -14045,18 +14045,18 @@
         <v>19</v>
       </c>
       <c r="P243" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q243" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R243" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:18">
       <c r="A244">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>19</v>
@@ -14065,19 +14065,19 @@
         <v>20</v>
       </c>
       <c r="D244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E244" t="s">
         <v>19</v>
       </c>
       <c r="F244" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G244" t="s">
         <v>19</v>
       </c>
       <c r="H244" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I244" t="s">
         <v>19</v>
@@ -14098,42 +14098,42 @@
         <v>19</v>
       </c>
       <c r="O244" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P244" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q244" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R244" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:18">
       <c r="A245">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>19</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E245" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F245" t="s">
         <v>21</v>
       </c>
       <c r="G245" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H245" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I245" t="s">
         <v>19</v>
@@ -14142,16 +14142,16 @@
         <v>19</v>
       </c>
       <c r="K245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L245" t="s">
         <v>19</v>
       </c>
       <c r="M245" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N245" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O245" t="s">
         <v>21</v>
@@ -14163,12 +14163,12 @@
         <v>22</v>
       </c>
       <c r="R245" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:18">
       <c r="A246">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>19</v>
@@ -14183,7 +14183,7 @@
         <v>21</v>
       </c>
       <c r="F246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G246" t="s">
         <v>22</v>
@@ -14204,13 +14204,13 @@
         <v>19</v>
       </c>
       <c r="M246" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P246" t="s">
         <v>22</v>
@@ -14224,22 +14224,22 @@
     </row>
     <row r="247" spans="1:18">
       <c r="A247">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C247" t="s">
         <v>18</v>
       </c>
       <c r="D247" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E247" t="s">
         <v>21</v>
       </c>
       <c r="F247" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G247" t="s">
         <v>22</v>
@@ -14260,7 +14260,7 @@
         <v>19</v>
       </c>
       <c r="M247" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N247" t="s">
         <v>19</v>
@@ -14280,10 +14280,10 @@
     </row>
     <row r="248" spans="1:18">
       <c r="A248">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C248" t="s">
         <v>18</v>
@@ -14292,7 +14292,7 @@
         <v>20</v>
       </c>
       <c r="E248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F248" t="s">
         <v>21</v>
@@ -14304,31 +14304,31 @@
         <v>18</v>
       </c>
       <c r="I248" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K248" t="s">
         <v>20</v>
       </c>
       <c r="L248" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M248" t="s">
         <v>22</v>
       </c>
       <c r="N248" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O248" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P248" t="s">
         <v>22</v>
       </c>
       <c r="Q248" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R248" t="s">
         <v>18</v>
@@ -14336,7 +14336,7 @@
     </row>
     <row r="249" spans="1:18">
       <c r="A249">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>19</v>
@@ -14345,46 +14345,46 @@
         <v>18</v>
       </c>
       <c r="D249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E249" t="s">
         <v>19</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G249" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H249" t="s">
         <v>18</v>
       </c>
       <c r="I249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J249" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M249" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P249" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q249" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R249" t="s">
         <v>18</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="250" spans="1:18">
       <c r="A250">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>19</v>
@@ -14410,7 +14410,7 @@
         <v>19</v>
       </c>
       <c r="G250" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H250" t="s">
         <v>18</v>
@@ -14422,13 +14422,13 @@
         <v>19</v>
       </c>
       <c r="K250" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L250" t="s">
         <v>19</v>
       </c>
       <c r="M250" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N250" t="s">
         <v>19</v>
@@ -14437,10 +14437,10 @@
         <v>19</v>
       </c>
       <c r="P250" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q250" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R250" t="s">
         <v>18</v>
@@ -14448,10 +14448,10 @@
     </row>
     <row r="251" spans="1:18">
       <c r="A251">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C251" t="s">
         <v>18</v>
@@ -14460,10 +14460,10 @@
         <v>19</v>
       </c>
       <c r="E251" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F251" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G251" t="s">
         <v>22</v>
@@ -14504,57 +14504,113 @@
     </row>
     <row r="252" spans="1:18">
       <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" t="s">
+        <v>18</v>
+      </c>
+      <c r="D252" t="s">
+        <v>19</v>
+      </c>
+      <c r="E252" t="s">
+        <v>21</v>
+      </c>
+      <c r="F252" t="s">
+        <v>21</v>
+      </c>
+      <c r="G252" t="s">
+        <v>22</v>
+      </c>
+      <c r="H252" t="s">
+        <v>18</v>
+      </c>
+      <c r="I252" t="s">
+        <v>19</v>
+      </c>
+      <c r="J252" t="s">
+        <v>19</v>
+      </c>
+      <c r="K252" t="s">
+        <v>20</v>
+      </c>
+      <c r="L252" t="s">
+        <v>19</v>
+      </c>
+      <c r="M252" t="s">
+        <v>22</v>
+      </c>
+      <c r="N252" t="s">
+        <v>19</v>
+      </c>
+      <c r="O252" t="s">
+        <v>19</v>
+      </c>
+      <c r="P252" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>22</v>
+      </c>
+      <c r="R252" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18">
+      <c r="A253">
         <v>252</v>
       </c>
-      <c r="B252" t="s">
-        <v>19</v>
-      </c>
-      <c r="C252" t="s">
-        <v>18</v>
-      </c>
-      <c r="D252" t="s">
-        <v>19</v>
-      </c>
-      <c r="E252" t="s">
-        <v>19</v>
-      </c>
-      <c r="F252" t="s">
-        <v>19</v>
-      </c>
-      <c r="G252" t="s">
-        <v>22</v>
-      </c>
-      <c r="H252" t="s">
-        <v>18</v>
-      </c>
-      <c r="I252" t="s">
-        <v>19</v>
-      </c>
-      <c r="J252" t="s">
-        <v>19</v>
-      </c>
-      <c r="K252" t="s">
-        <v>20</v>
-      </c>
-      <c r="L252" t="s">
-        <v>19</v>
-      </c>
-      <c r="M252" t="s">
-        <v>22</v>
-      </c>
-      <c r="N252" t="s">
-        <v>19</v>
-      </c>
-      <c r="O252" t="s">
-        <v>19</v>
-      </c>
-      <c r="P252" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q252" t="s">
-        <v>22</v>
-      </c>
-      <c r="R252" t="s">
+      <c r="B253" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253" t="s">
+        <v>19</v>
+      </c>
+      <c r="G253" t="s">
+        <v>22</v>
+      </c>
+      <c r="H253" t="s">
+        <v>18</v>
+      </c>
+      <c r="I253" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" t="s">
+        <v>19</v>
+      </c>
+      <c r="K253" t="s">
+        <v>20</v>
+      </c>
+      <c r="L253" t="s">
+        <v>19</v>
+      </c>
+      <c r="M253" t="s">
+        <v>22</v>
+      </c>
+      <c r="N253" t="s">
+        <v>19</v>
+      </c>
+      <c r="O253" t="s">
+        <v>19</v>
+      </c>
+      <c r="P253" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>22</v>
+      </c>
+      <c r="R253" t="s">
         <v>18</v>
       </c>
     </row>
